--- a/biology/Microbiologie/Thermus/Thermus.xlsx
+++ b/biology/Microbiologie/Thermus/Thermus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thermus est un genre de la famille des Thermaceae et dont l'espèce la plus connue est Thermus aquaticus.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon LPSN  (20 septembre 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (20 septembre 2023) :
 Thermus albus Li et al. 2023
 Thermus altitudinis Li et al. 2023
 Thermus amyloliquefaciens Yu et al. 2015
@@ -592,12 +608,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Thermus Brock &amp; Freeze 1969[1].
-L'espèce type est : Thermus aquaticus Brock &amp; Freeze 1969[1].
-Étymologie
-L'étymologie du nom de ce genre Thermus est la suivante : Gr. masc. adj. thermos, chaud; N.L. masc. n. Thermus, ce qui indique un organisme capable de vivre dans des endroits chauds[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Thermus Brock &amp; Freeze 1969.
+L'espèce type est : Thermus aquaticus Brock &amp; Freeze 1969.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Thermus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thermus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom de ce genre Thermus est la suivante : Gr. masc. adj. thermos, chaud; N.L. masc. n. Thermus, ce qui indique un organisme capable de vivre dans des endroits chauds.
 </t>
         </is>
       </c>
